--- a/Health/HealthCare Facilities/HealthCareManPower.xlsx
+++ b/Health/HealthCare Facilities/HealthCareManPower.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\HealthCare Facilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94DE8A1F-C456-4477-B4E0-2C75F7F7A698}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BA0216-9C0D-4634-A253-A223670F5760}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HealthCareManPower" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>HealthCare Manpower</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="18">
   <si>
     <t>Doctors</t>
   </si>
@@ -69,11 +66,20 @@
   <si>
     <t>Acupuncturists</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>No. of Manpower</t>
+  </si>
+  <si>
+    <t>Healthcare Roles</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -551,8 +557,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -907,627 +915,1847 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="2">
         <v>2008</v>
       </c>
-      <c r="C1">
+      <c r="C2">
+        <v>7841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C5">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C7">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C9">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C10">
+        <v>17881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C11">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C12">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C14">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C15">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C16">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
         <v>2009</v>
       </c>
-      <c r="D1">
+      <c r="C17">
+        <v>8323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C18">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C19">
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C20">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C21">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C22">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C23">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C24">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C25">
+        <v>19733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C26">
+        <v>6765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C27">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C29">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C30">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C31">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2">
         <v>2010</v>
       </c>
-      <c r="E1">
+      <c r="C32">
+        <v>9030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C33">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C34">
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C35">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C36">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C37">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C38">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C39">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C40">
+        <v>21575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C41">
+        <v>7478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C42">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C44">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C45">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C46">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2">
         <v>2011</v>
       </c>
-      <c r="F1">
+      <c r="C47">
+        <v>9646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C48">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C49">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C50">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C51">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C52">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C53">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C54">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C55">
+        <v>23598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C56">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C57">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C58">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C59">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C60">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C61">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2">
         <v>2012</v>
       </c>
-      <c r="G1">
+      <c r="C62">
+        <v>10225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C63">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C64">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C65">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C66">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C67">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C68">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C69">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C70">
+        <v>25971</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C71">
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C72">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C73">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C74">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C75">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C76">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2">
         <v>2013</v>
       </c>
-      <c r="H1">
+      <c r="C77">
+        <v>10953</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C78">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C79">
+        <v>6829</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C80">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C81">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C82">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C83">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C84">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C85">
+        <v>27556</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C86">
+        <v>8273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C87">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C88">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C89">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C90">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C91">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="2">
         <v>2014</v>
       </c>
-      <c r="I1">
+      <c r="C92">
+        <v>11733</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C93">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C94">
+        <v>7248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C95">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C96">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C97">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C98">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C99">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C100">
+        <v>28864</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C101">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C102">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C103">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C104">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C105">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C106">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="2">
         <v>2015</v>
       </c>
-      <c r="J1">
+      <c r="C107">
+        <v>12459</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C108">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C109">
+        <v>7671</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C110">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C111">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C112">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C113">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C114">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C115">
+        <v>29894</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C116">
+        <v>8931</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C117">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C118">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C119">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C120">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C121">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="2">
         <v>2016</v>
       </c>
-      <c r="K1">
+      <c r="C122">
+        <v>12967</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C123">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C124">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C125">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C126">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C127">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C128">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C129">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C130">
+        <v>31615</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C131">
+        <v>8781</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C132">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C133">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C134">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C135">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C136">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="2">
         <v>2017</v>
       </c>
-      <c r="L1">
+      <c r="C137">
+        <v>13386</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C138">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C139">
+        <v>8048</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C140">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C141">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C142">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C143">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C144">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C145">
+        <v>32672</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C146">
+        <v>8631</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C147">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C148">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C149">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C150">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C151">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C152">
+        <v>13766</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>7841</v>
-      </c>
-      <c r="C2">
-        <v>8323</v>
-      </c>
-      <c r="D2">
-        <v>9030</v>
-      </c>
-      <c r="E2">
-        <v>9646</v>
-      </c>
-      <c r="F2">
-        <v>10225</v>
-      </c>
-      <c r="G2">
-        <v>10953</v>
-      </c>
-      <c r="H2">
-        <v>11733</v>
-      </c>
-      <c r="I2">
-        <v>12459</v>
-      </c>
-      <c r="J2">
-        <v>12967</v>
-      </c>
-      <c r="K2">
-        <v>13386</v>
-      </c>
-      <c r="L2">
-        <v>13766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B153" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C153">
+        <v>5615</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2962</v>
-      </c>
-      <c r="C3">
-        <v>3180</v>
-      </c>
-      <c r="D3">
-        <v>3374</v>
-      </c>
-      <c r="E3">
-        <v>3635</v>
-      </c>
-      <c r="F3">
-        <v>3867</v>
-      </c>
-      <c r="G3">
-        <v>4124</v>
-      </c>
-      <c r="H3">
-        <v>4485</v>
-      </c>
-      <c r="I3">
-        <v>4788</v>
-      </c>
-      <c r="J3">
-        <v>5047</v>
-      </c>
-      <c r="K3">
-        <v>5338</v>
-      </c>
-      <c r="L3">
-        <v>5615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B154" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C154">
+        <v>8151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4879</v>
-      </c>
-      <c r="C4">
-        <v>5143</v>
-      </c>
-      <c r="D4">
-        <v>5656</v>
-      </c>
-      <c r="E4">
-        <v>6011</v>
-      </c>
-      <c r="F4">
-        <v>6358</v>
-      </c>
-      <c r="G4">
-        <v>6829</v>
-      </c>
-      <c r="H4">
-        <v>7248</v>
-      </c>
-      <c r="I4">
-        <v>7671</v>
-      </c>
-      <c r="J4">
-        <v>7920</v>
-      </c>
-      <c r="K4">
-        <v>8048</v>
-      </c>
-      <c r="L4">
-        <v>8151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B155" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C155">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1484</v>
-      </c>
-      <c r="C5">
-        <v>1531</v>
-      </c>
-      <c r="D5">
-        <v>1579</v>
-      </c>
-      <c r="E5">
-        <v>1611</v>
-      </c>
-      <c r="F5">
-        <v>1699</v>
-      </c>
-      <c r="G5">
-        <v>1821</v>
-      </c>
-      <c r="H5">
-        <v>1905</v>
-      </c>
-      <c r="I5">
-        <v>2060</v>
-      </c>
-      <c r="J5">
-        <v>2198</v>
-      </c>
-      <c r="K5">
-        <v>2293</v>
-      </c>
-      <c r="L5">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B156" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C156">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>165</v>
-      </c>
-      <c r="C6">
-        <v>256</v>
-      </c>
-      <c r="D6">
-        <v>286</v>
-      </c>
-      <c r="E6">
-        <v>285</v>
-      </c>
-      <c r="F6">
-        <v>303</v>
-      </c>
-      <c r="G6">
-        <v>309</v>
-      </c>
-      <c r="H6">
-        <v>313</v>
-      </c>
-      <c r="I6">
-        <v>324</v>
-      </c>
-      <c r="J6">
-        <v>333</v>
-      </c>
-      <c r="K6">
-        <v>350</v>
-      </c>
-      <c r="L6">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B157" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C157">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1319</v>
-      </c>
-      <c r="C7">
-        <v>1275</v>
-      </c>
-      <c r="D7">
-        <v>1293</v>
-      </c>
-      <c r="E7">
-        <v>1326</v>
-      </c>
-      <c r="F7">
-        <v>1396</v>
-      </c>
-      <c r="G7">
-        <v>1512</v>
-      </c>
-      <c r="H7">
-        <v>1592</v>
-      </c>
-      <c r="I7">
-        <v>1736</v>
-      </c>
-      <c r="J7">
-        <v>1865</v>
-      </c>
-      <c r="K7">
-        <v>1943</v>
-      </c>
-      <c r="L7">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B158" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C158">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>243</v>
-      </c>
-      <c r="C8">
-        <v>264</v>
-      </c>
-      <c r="D8">
-        <v>290</v>
-      </c>
-      <c r="E8">
-        <v>312</v>
-      </c>
-      <c r="F8">
-        <v>337</v>
-      </c>
-      <c r="G8">
-        <v>364</v>
-      </c>
-      <c r="H8">
-        <v>377</v>
-      </c>
-      <c r="I8">
-        <v>400</v>
-      </c>
-      <c r="J8">
-        <v>401</v>
-      </c>
-      <c r="K8">
-        <v>416</v>
-      </c>
-      <c r="L8">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B159" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C159">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1546</v>
-      </c>
-      <c r="C9">
-        <v>1658</v>
-      </c>
-      <c r="D9">
-        <v>1814</v>
-      </c>
-      <c r="E9">
-        <v>2013</v>
-      </c>
-      <c r="F9">
-        <v>2172</v>
-      </c>
-      <c r="G9">
-        <v>2376</v>
-      </c>
-      <c r="H9">
-        <v>2563</v>
-      </c>
-      <c r="I9">
-        <v>2757</v>
-      </c>
-      <c r="J9">
-        <v>2875</v>
-      </c>
-      <c r="K9">
-        <v>3047</v>
-      </c>
-      <c r="L9">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B160" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C160">
+        <v>33614</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>17881</v>
-      </c>
-      <c r="C10">
-        <v>19733</v>
-      </c>
-      <c r="D10">
-        <v>21575</v>
-      </c>
-      <c r="E10">
-        <v>23598</v>
-      </c>
-      <c r="F10">
-        <v>25971</v>
-      </c>
-      <c r="G10">
-        <v>27556</v>
-      </c>
-      <c r="H10">
-        <v>28864</v>
-      </c>
-      <c r="I10">
-        <v>29894</v>
-      </c>
-      <c r="J10">
-        <v>31615</v>
-      </c>
-      <c r="K10">
-        <v>32672</v>
-      </c>
-      <c r="L10">
-        <v>33614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B161" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C161">
+        <v>8394</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>6006</v>
-      </c>
-      <c r="C11">
-        <v>6765</v>
-      </c>
-      <c r="D11">
-        <v>7478</v>
-      </c>
-      <c r="E11">
-        <v>7869</v>
-      </c>
-      <c r="F11">
-        <v>8274</v>
-      </c>
-      <c r="G11">
-        <v>8273</v>
-      </c>
-      <c r="H11">
-        <v>8528</v>
-      </c>
-      <c r="I11">
-        <v>8931</v>
-      </c>
-      <c r="J11">
-        <v>8781</v>
-      </c>
-      <c r="K11">
-        <v>8631</v>
-      </c>
-      <c r="L11">
-        <v>8394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B162" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C162">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>322</v>
-      </c>
-      <c r="C12">
-        <v>294</v>
-      </c>
-      <c r="D12">
-        <v>287</v>
-      </c>
-      <c r="E12">
-        <v>282</v>
-      </c>
-      <c r="F12">
-        <v>262</v>
-      </c>
-      <c r="G12">
-        <v>246</v>
-      </c>
-      <c r="H12">
-        <v>226</v>
-      </c>
-      <c r="I12">
-        <v>180</v>
-      </c>
-      <c r="J12">
-        <v>165</v>
-      </c>
-      <c r="K12">
-        <v>137</v>
-      </c>
-      <c r="L12">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B163" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C163">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>37</v>
-      </c>
-      <c r="D13">
-        <v>48</v>
-      </c>
-      <c r="E13">
-        <v>78</v>
-      </c>
-      <c r="F13">
-        <v>88</v>
-      </c>
-      <c r="G13">
-        <v>117</v>
-      </c>
-      <c r="H13">
-        <v>145</v>
-      </c>
-      <c r="I13">
-        <v>172</v>
-      </c>
-      <c r="J13">
-        <v>197</v>
-      </c>
-      <c r="K13">
-        <v>218</v>
-      </c>
-      <c r="L13">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B164" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C164">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>2286</v>
-      </c>
-      <c r="C14">
-        <v>2324</v>
-      </c>
-      <c r="D14">
-        <v>2419</v>
-      </c>
-      <c r="E14">
-        <v>2441</v>
-      </c>
-      <c r="F14">
-        <v>2478</v>
-      </c>
-      <c r="G14">
-        <v>2461</v>
-      </c>
-      <c r="H14">
-        <v>2610</v>
-      </c>
-      <c r="I14">
-        <v>2624</v>
-      </c>
-      <c r="J14">
-        <v>2650</v>
-      </c>
-      <c r="K14">
-        <v>2605</v>
-      </c>
-      <c r="L14">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B165" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C165">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>2167</v>
-      </c>
-      <c r="C15">
-        <v>2203</v>
-      </c>
-      <c r="D15">
-        <v>2322</v>
-      </c>
-      <c r="E15">
-        <v>2444</v>
-      </c>
-      <c r="F15">
-        <v>2538</v>
-      </c>
-      <c r="G15">
-        <v>2629</v>
-      </c>
-      <c r="H15">
-        <v>2740</v>
-      </c>
-      <c r="I15">
-        <v>2808</v>
-      </c>
-      <c r="J15">
-        <v>2868</v>
-      </c>
-      <c r="K15">
-        <v>2952</v>
-      </c>
-      <c r="L15">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>206</v>
-      </c>
-      <c r="C16">
-        <v>218</v>
-      </c>
-      <c r="D16">
-        <v>218</v>
-      </c>
-      <c r="E16">
-        <v>235</v>
-      </c>
-      <c r="F16">
-        <v>235</v>
-      </c>
-      <c r="G16">
-        <v>244</v>
-      </c>
-      <c r="H16">
-        <v>240</v>
-      </c>
-      <c r="I16">
-        <v>249</v>
-      </c>
-      <c r="J16">
-        <v>247</v>
-      </c>
-      <c r="K16">
-        <v>254</v>
-      </c>
-      <c r="L16">
+      <c r="B166" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C166">
         <v>252</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>